--- a/資料/React.xlsx
+++ b/資料/React.xlsx
@@ -5,15 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qweas\OneDrive\デスクトップ\project\社用オブジェクトReact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qweas\OneDrive\デスクトップ\project\社用オブジェクトReact\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC21364-A36A-4771-939E-02FD6239CFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD2B017-4EB1-4CDF-8796-39895F7AC2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14652" yWindow="2772" windowWidth="15324" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
+    <sheet name="api" sheetId="2" r:id="rId2"/>
+    <sheet name="创建项目(无graphql)" sheetId="4" r:id="rId3"/>
+    <sheet name="创建项目(graphql)" sheetId="3" r:id="rId4"/>
+    <sheet name="メモ" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="131">
   <si>
     <r>
       <t>制作一个公司管理</t>
@@ -1649,13 +1653,3919 @@
   </si>
   <si>
     <t>工资计算组件:展示员工的月工资和相关计算细节。</t>
+  </si>
+  <si>
+    <r>
+      <t>根据你的描述，已</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>经</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>涵盖了大部分基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>功能的API。但在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实际应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用中，可能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>还</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要以下一些API接口以提供更全面的功能和更好的用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>验</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <t>1. **批量操作**:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    - 批量添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>工信息：`POST /employees/bulk`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    - 批量修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>工信息：`PUT /employees/bulk`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    - 批量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>删</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>工信息：`DELETE /employees/bulk`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    - 批量添加勤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>务记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：`POST /attendances/bulk`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. **搜索和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过滤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>**:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    - 根据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>工名字搜索：`GET /employees/search?name=xyz`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    - 根据日期范</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>围筛选</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>勤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>务记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：`GET /attendances?start_date=xxxx-xx-xx&amp;end_date=xxxx-xx-xx`</t>
+    </r>
+  </si>
+  <si>
+    <t>3. **排序**:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    - 根据姓名、入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>职</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日期等排序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>工列表：`GET /employees?sort=name_asc`</t>
+    </r>
+  </si>
+  <si>
+    <t>4. **其他**:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>取特定月份的勤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>务记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：`GET /attendances/:employee_id/month/:month`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    - 批量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>算工</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>资</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：`GET /salary/bulk?start_date=xxxx-xx-xx&amp;end_date=xxxx-xx-xx`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>取所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>工的工</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>资统计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：`GET /salary/summary`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5. **登</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>权</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>限管理** (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了确保数据安全和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>权</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>限控制，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是非常重要的部分):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    - 登</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：`POST /auth/login`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    - 注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：`POST /auth/logout`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    - 修改密</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：`PUT /auth/change-password`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    - 注册或添加新用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：`POST /auth/register`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>删</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>除用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：`DELETE /auth/users/:id`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    - 分配/撤回用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>户权</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>限：`PUT /auth/users/:id/permissions`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6. **</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>份和恢复** (在生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>产环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>境中非常重要):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>份数据：`POST /backup`</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    - 恢复数据：`POST /restore`</t>
+  </si>
+  <si>
+    <r>
+      <t>7. **日志和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>监</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>控** (帮助追踪系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>取API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>访问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日志：`GET /logs/api`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>错误</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日志：`GET /logs/errors`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>只是根据你</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>给</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出的基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>API列表所做的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>扩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>展。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实际</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需求可能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>还</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会因</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用的具体功能和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>业务逻辑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>而有所</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>化。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>确保考</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>虑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到安全性、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>扩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>展性和可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>维护</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>性。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>合了Express.js、OpenAPI和GraphQL的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目是一个相</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>杂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>程。下面是一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>简</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>化的指南来帮助你开始：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>### 1. 初始化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>首先，你需要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建一个新的Node.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目：</t>
+    </r>
+  </si>
+  <si>
+    <t>```bash</t>
+  </si>
+  <si>
+    <t>mkdir express-openapi-graphql</t>
+  </si>
+  <si>
+    <t>cd express-openapi-graphql</t>
+  </si>
+  <si>
+    <t>npm init -y</t>
+  </si>
+  <si>
+    <t>```</t>
+  </si>
+  <si>
+    <r>
+      <t>### 2. 安装必要的依</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>赖</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">### 3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>置Express.js</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目根目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建一个新的文件，如`server.js`，并添加以下内容：</t>
+    </r>
+  </si>
+  <si>
+    <t>```javascript</t>
+  </si>
+  <si>
+    <t>const express = require('express');</t>
+  </si>
+  <si>
+    <t>const { graphqlHTTP } = require('express-graphql');</t>
+  </si>
+  <si>
+    <t>const { buildSchema } = require('graphql');</t>
+  </si>
+  <si>
+    <t>const OpenApiValidator = require('express-openapi-validator');</t>
+  </si>
+  <si>
+    <t>const app = express();</t>
+  </si>
+  <si>
+    <t>// TODO: Set up GraphQL schema and OpenAPI specifications here</t>
+  </si>
+  <si>
+    <t>app.listen(3000, () =&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    console.log('Server is running on http://localhost:3000');</t>
+  </si>
+  <si>
+    <t>});</t>
+  </si>
+  <si>
+    <t>### 4. 配置GraphQL</t>
+  </si>
+  <si>
+    <t>在上述`server.js`文件中，你可以添加GraphQL schema 和resolver：</t>
+  </si>
+  <si>
+    <t>const schema = buildSchema(`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    type Query {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        hello: String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t>`);</t>
+  </si>
+  <si>
+    <t>const root = {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    hello: () =&gt; 'Hello world!',</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>app.use('/graphql', graphqlHTTP({</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    schema: schema,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    rootValue: root,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    graphiql: true,</t>
+  </si>
+  <si>
+    <t>}));</t>
+  </si>
+  <si>
+    <r>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将配置一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>简单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的GraphQL接口，你可以通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>`http://localhost:3000/graphql`来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>访问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">### 5. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>置OpenAPI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>首先，你需要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建一个OpenAPI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>规</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>范文件，例如`openapi.yaml`。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>个文件描述了你的RESTful API的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>构。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>然后，在`server.js`中使用`OpenApiValidator`来校</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>验请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>求和响</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <t>app.use(OpenApiValidator.middleware({</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    apiSpec: './openapi.yaml',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    validateRequests: true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    validateResponses: true</t>
+  </si>
+  <si>
+    <t>// TODO: Add your Express routes here</t>
+  </si>
+  <si>
+    <r>
+      <t>### 6. 运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目</t>
+    </r>
+  </si>
+  <si>
+    <t>node server.js</t>
+  </si>
+  <si>
+    <r>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>只是一个基本的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>置。在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>践中，你可能需要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>外的依</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>赖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>错误处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>理和其他配置来完善你的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目。同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>熟悉每个工具的官方文档，以便更有效地使用它</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>们</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>npm install express graphql express-graphql openapi-validator</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>些都是中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件，用于增</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>强</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>或修改Express</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用的功能。每一行代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>都有其特定的作用。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>让</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>们</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>逐行分析：</t>
+    </r>
+  </si>
+  <si>
+    <t>1. **`app.use(logger('dev'));`**</t>
+  </si>
+  <si>
+    <t>2. **`app.use(express.json());`**</t>
+  </si>
+  <si>
+    <t>3. **`app.use(express.urlencoded({ extended: false }));`**</t>
+  </si>
+  <si>
+    <t>4. **`app.use(cookieParser());`**</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用了`cookie-parser`中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件。它的作用是解析Web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>浏览</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>送到服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>器的cookie，并将解析后的cookie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>象作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>`req.cookies`附加到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>象上。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>理cookie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>得非常容易。</t>
+    </r>
+  </si>
+  <si>
+    <t>5. **`app.use(express.static(path.join(__dirname, 'public')));`**</t>
+  </si>
+  <si>
+    <r>
+      <t>简</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>而言之，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>些中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Express</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用添加了一些常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>见</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>功能，使开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>程更加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>顺畅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用了Express的内置静</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文件服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>器中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>意味着你可以将静</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文件（如HTML、CSS、JavaScript、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>像等）放在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>下的`public`文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>夹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中，并且它</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>们</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可以直接从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>浏览</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>访问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>例如，如果你有一个名为`index.html`的文件在`public`目录中，那么可以通过访问`http://yourserver/index.html`来访问它。</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用了`morgan`日志中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件，用于在开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>模式下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>记录请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>求日志。`'dev'`参数使其在开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>境中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>显</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>示有色彩的日志</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出。</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　这样</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，每次有人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>访问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>你的服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，你都可以在控制台看到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>详细</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>求信息，例如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>求方法、URL、响</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>态码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>等。</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>添加了一个内置中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件，用于解析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入的JSON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>求主体。</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这意味着，当客户端发送一个含有JSON数据的请求时，你可以在你的路由或其他中间件中通过`req.body`轻松地访问这些数据。</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用了一个内置中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件，用于解析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入的URL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编码请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>求主体。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的HTML表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>提交非常有用。</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`extended: false`表示它只解析字符串和数组，而不是解析复杂的嵌套对象。如果你需要解析嵌套对象，可以将其设置为`true`。</t>
+    </r>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1701,6 +5611,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1722,11 +5640,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2013,194 +5933,778 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B31" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B35" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B40" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B42" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B44" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B45" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B46" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B47" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B49" s="2" t="s">
         <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B31985-283F-4077-A501-8BDE0D631776}">
+  <dimension ref="B2:B38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B38" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC71EEB-8B0B-41BD-B878-D85081304B8B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9A3733-BA14-4241-8B18-D5777A53B682}">
+  <dimension ref="B2:B85"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B2" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B61" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B69" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B77" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B81" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B83" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B85" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03871BF3-84A2-4261-A4DF-2FC093141060}">
+  <dimension ref="B2:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B2" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B22" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
